--- a/P1/out/Week-of-02-27-2023/!Profit_Week-of-02-27-2023.xlsx
+++ b/P1/out/Week-of-02-27-2023/!Profit_Week-of-02-27-2023.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>Client</x:t>
   </x:si>
   <x:si>
     <x:t>Commission &amp; Base Fee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0001 : Judith Lynch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0002 : Lurline Odriscoll</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0003 : June Scala</x:t>
   </x:si>
   <x:si>
     <x:t>0004 : Michele Hall</x:t>
@@ -379,7 +388,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B4"/>
+  <x:dimension ref="A1:B7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -398,7 +407,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>384.79</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
@@ -406,7 +415,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>112.9</x:v>
+        <x:v>188.24</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -414,7 +423,31 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>203.9</x:v>
+        <x:v>205.52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>112.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>982.45</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
